--- a/grammar/enchanto/LR_Table.xlsx
+++ b/grammar/enchanto/LR_Table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR180"/>
+  <dimension ref="A1:CQ180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="BZ1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FOP</t>
         </is>
       </c>
       <c r="CA1" t="inlineStr">
@@ -814,85 +814,80 @@
       </c>
       <c r="CB1" t="inlineStr">
         <is>
-          <t>FOP</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="CC1" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>TSV</t>
         </is>
       </c>
       <c r="CD1" t="inlineStr">
         <is>
-          <t>TSV</t>
+          <t>LOP</t>
         </is>
       </c>
       <c r="CE1" t="inlineStr">
         <is>
-          <t>LOP</t>
+          <t>ER</t>
         </is>
       </c>
       <c r="CF1" t="inlineStr">
         <is>
-          <t>ER</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="CG1" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="CH1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>LHS</t>
         </is>
       </c>
       <c r="CI1" t="inlineStr">
         <is>
-          <t>LHS</t>
+          <t>RHS</t>
         </is>
       </c>
       <c r="CJ1" t="inlineStr">
         <is>
-          <t>RHS</t>
+          <t>ARRAY</t>
         </is>
       </c>
       <c r="CK1" t="inlineStr">
         <is>
-          <t>ARRAY</t>
+          <t>AELEM</t>
         </is>
       </c>
       <c r="CL1" t="inlineStr">
         <is>
-          <t>AELEM</t>
+          <t>EDDT</t>
         </is>
       </c>
       <c r="CM1" t="inlineStr">
         <is>
-          <t>EDDT</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="CN1" t="inlineStr">
         <is>
-          <t>SV</t>
+          <t>DDT</t>
         </is>
       </c>
       <c r="CO1" t="inlineStr">
         <is>
-          <t>DDT</t>
+          <t>DARRAY</t>
         </is>
       </c>
       <c r="CP1" t="inlineStr">
         <is>
-          <t>DARRAY</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="CQ1" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="CR1" t="inlineStr">
         <is>
           <t>#</t>
         </is>
@@ -906,342 +901,342 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s17</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>s20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>s24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>s31</t>
+          <t>31</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>s32</t>
+          <t>32</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>s40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>s42</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>s43</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>s44</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>s45</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>s46</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>s47</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>s51</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>s55</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>s56</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>s57</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>s58</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>s59</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>s65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>s15</t>
+          <t>15</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>s19</t>
+          <t>19</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>s21</t>
+          <t>21</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>s22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>s50</t>
+          <t>50</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>s25</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>s37</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CI2" t="inlineStr">
-        <is>
-          <t>s48</t>
-        </is>
-      </c>
-      <c r="CK2" t="inlineStr">
-        <is>
-          <t>s49</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="CN2" t="inlineStr">
         <is>
-          <t>s60</t>
+          <t>53</t>
         </is>
       </c>
       <c r="CO2" t="inlineStr">
         <is>
-          <t>s53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>s54</t>
-        </is>
-      </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1246,7 @@
           <t>state 1</t>
         </is>
       </c>
-      <c r="CR3" t="inlineStr">
+      <c r="CQ3" t="inlineStr">
         <is>
           <t>acc</t>
         </is>
@@ -1265,7 +1260,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>s69</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1282,102 +1277,102 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>s70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>s13</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1384,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>s90</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1399,7 @@
           <t>r4</t>
         </is>
       </c>
-      <c r="CR7" t="inlineStr">
+      <c r="CQ7" t="inlineStr">
         <is>
           <t>r4</t>
         </is>
@@ -1421,7 +1416,7 @@
           <t>r5</t>
         </is>
       </c>
-      <c r="CR8" t="inlineStr">
+      <c r="CQ8" t="inlineStr">
         <is>
           <t>r5</t>
         </is>
@@ -1438,7 +1433,7 @@
           <t>r6</t>
         </is>
       </c>
-      <c r="CR9" t="inlineStr">
+      <c r="CQ9" t="inlineStr">
         <is>
           <t>r6</t>
         </is>
@@ -1455,7 +1450,7 @@
           <t>r7</t>
         </is>
       </c>
-      <c r="CR10" t="inlineStr">
+      <c r="CQ10" t="inlineStr">
         <is>
           <t>r7</t>
         </is>
@@ -1472,7 +1467,7 @@
           <t>r8</t>
         </is>
       </c>
-      <c r="CR11" t="inlineStr">
+      <c r="CQ11" t="inlineStr">
         <is>
           <t>r8</t>
         </is>
@@ -1489,7 +1484,7 @@
           <t>r9</t>
         </is>
       </c>
-      <c r="CR12" t="inlineStr">
+      <c r="CQ12" t="inlineStr">
         <is>
           <t>r9</t>
         </is>
@@ -1506,7 +1501,7 @@
           <t>r10</t>
         </is>
       </c>
-      <c r="CR13" t="inlineStr">
+      <c r="CQ13" t="inlineStr">
         <is>
           <t>r10</t>
         </is>
@@ -1523,7 +1518,7 @@
           <t>r11</t>
         </is>
       </c>
-      <c r="CR14" t="inlineStr">
+      <c r="CQ14" t="inlineStr">
         <is>
           <t>r11</t>
         </is>
@@ -1542,30 +1537,30 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>s16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s17</t>
+          <t>17</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>s91</t>
+          <t>91</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>s94</t>
+          <t>94</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>s15</t>
-        </is>
-      </c>
-      <c r="CR15" t="inlineStr">
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr">
         <is>
           <t>r15</t>
         </is>
@@ -1579,52 +1574,52 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>s96</t>
+          <t>96</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CF16" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH16" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ16" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1641,20 +1636,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>s106</t>
+          <t>106</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>s15</t>
-        </is>
-      </c>
-      <c r="CR17" t="inlineStr">
+          <t>15</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr">
         <is>
           <t>r18</t>
         </is>
@@ -1668,52 +1663,52 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>s109</t>
+          <t>109</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CF18" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH18" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ18" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1720,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>s119</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1732,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>s122</t>
+          <t>122</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>s120</t>
+          <t>120</t>
         </is>
       </c>
       <c r="BQ20" t="inlineStr">
         <is>
-          <t>s19</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1816,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>s124</t>
+          <t>124</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -1834,7 +1829,7 @@
           <t>r90</t>
         </is>
       </c>
-      <c r="CR22" t="inlineStr">
+      <c r="CQ22" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
@@ -1878,10 +1873,10 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>s125</t>
-        </is>
-      </c>
-      <c r="CR23" t="inlineStr">
+          <t>125</t>
+        </is>
+      </c>
+      <c r="CQ23" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -1915,25 +1910,25 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="BX24" t="inlineStr">
         <is>
-          <t>s126</t>
-        </is>
-      </c>
-      <c r="CR24" t="inlineStr">
+          <t>126</t>
+        </is>
+      </c>
+      <c r="CQ24" t="inlineStr">
         <is>
           <t>r71</t>
         </is>
@@ -1947,52 +1942,52 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL25" t="inlineStr">
         <is>
-          <t>s130</t>
+          <t>130</t>
         </is>
       </c>
       <c r="BW25" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CF25" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH25" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ25" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -2004,52 +1999,52 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL26" t="inlineStr">
         <is>
-          <t>s140</t>
+          <t>140</t>
         </is>
       </c>
       <c r="BW26" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CF26" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH26" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ26" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2089,7 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="CR27" t="inlineStr">
+      <c r="CQ27" t="inlineStr">
         <is>
           <t>r70</t>
         </is>
@@ -2126,6 +2121,16 @@
           <t>r35</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr">
         <is>
           <t>r35</t>
@@ -2133,10 +2138,10 @@
       </c>
       <c r="BZ28" t="inlineStr">
         <is>
-          <t>s150</t>
-        </is>
-      </c>
-      <c r="CR28" t="inlineStr">
+          <t>150</t>
+        </is>
+      </c>
+      <c r="CQ28" t="inlineStr">
         <is>
           <t>r35</t>
         </is>
@@ -2148,7 +2153,7 @@
           <t>state 27</t>
         </is>
       </c>
-      <c r="CR29" t="inlineStr">
+      <c r="CQ29" t="inlineStr">
         <is>
           <t>r36</t>
         </is>
@@ -2160,7 +2165,7 @@
           <t>state 28</t>
         </is>
       </c>
-      <c r="CR30" t="inlineStr">
+      <c r="CQ30" t="inlineStr">
         <is>
           <t>r37</t>
         </is>
@@ -2172,7 +2177,7 @@
           <t>state 29</t>
         </is>
       </c>
-      <c r="CR31" t="inlineStr">
+      <c r="CQ31" t="inlineStr">
         <is>
           <t>r38</t>
         </is>
@@ -2209,7 +2214,7 @@
           <t>r40</t>
         </is>
       </c>
-      <c r="CR32" t="inlineStr">
+      <c r="CQ32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
@@ -2221,6 +2226,11 @@
           <t>state 31</t>
         </is>
       </c>
+      <c r="CQ33" t="inlineStr">
+        <is>
+          <t>r41</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2228,6 +2238,11 @@
           <t>state 32</t>
         </is>
       </c>
+      <c r="CQ34" t="inlineStr">
+        <is>
+          <t>r42</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2237,82 +2252,82 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>s156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>s65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL35" t="inlineStr">
         <is>
-          <t>s161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="BS35" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT35" t="inlineStr">
         <is>
-          <t>s151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="BW35" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY35" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA35" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB35" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC35" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD35" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF35" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH35" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ35" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG35" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP35" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2359,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>s167</t>
+          <t>169</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -2352,7 +2367,7 @@
           <t>r45</t>
         </is>
       </c>
-      <c r="CR36" t="inlineStr">
+      <c r="CQ36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
@@ -2394,7 +2409,7 @@
           <t>r47</t>
         </is>
       </c>
-      <c r="CR37" t="inlineStr">
+      <c r="CQ37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
@@ -2433,25 +2448,25 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE38" t="inlineStr">
-        <is>
-          <t>s168</t>
-        </is>
-      </c>
-      <c r="CR38" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="CQ38" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
@@ -2500,40 +2515,40 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>s42</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>s43</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>s44</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>s45</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>s46</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>s47</t>
-        </is>
-      </c>
-      <c r="CG39" t="inlineStr">
-        <is>
-          <t>s172</t>
-        </is>
-      </c>
-      <c r="CR39" t="inlineStr">
+          <t>47</t>
+        </is>
+      </c>
+      <c r="CF39" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="CQ39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
@@ -2545,7 +2560,7 @@
           <t>state 38</t>
         </is>
       </c>
-      <c r="CR40" t="inlineStr">
+      <c r="CQ40" t="inlineStr">
         <is>
           <t>r51</t>
         </is>
@@ -2557,7 +2572,7 @@
           <t>state 39</t>
         </is>
       </c>
-      <c r="CR41" t="inlineStr">
+      <c r="CQ41" t="inlineStr">
         <is>
           <t>r52</t>
         </is>
@@ -2569,7 +2584,7 @@
           <t>state 40</t>
         </is>
       </c>
-      <c r="CR42" t="inlineStr">
+      <c r="CQ42" t="inlineStr">
         <is>
           <t>r53</t>
         </is>
@@ -2616,7 +2631,7 @@
           <t>r55</t>
         </is>
       </c>
-      <c r="CR43" t="inlineStr">
+      <c r="CQ43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
@@ -2628,7 +2643,7 @@
           <t>state 42</t>
         </is>
       </c>
-      <c r="CR44" t="inlineStr">
+      <c r="CQ44" t="inlineStr">
         <is>
           <t>r56</t>
         </is>
@@ -2640,7 +2655,7 @@
           <t>state 43</t>
         </is>
       </c>
-      <c r="CR45" t="inlineStr">
+      <c r="CQ45" t="inlineStr">
         <is>
           <t>r57</t>
         </is>
@@ -2652,7 +2667,7 @@
           <t>state 44</t>
         </is>
       </c>
-      <c r="CR46" t="inlineStr">
+      <c r="CQ46" t="inlineStr">
         <is>
           <t>r58</t>
         </is>
@@ -2664,7 +2679,7 @@
           <t>state 45</t>
         </is>
       </c>
-      <c r="CR47" t="inlineStr">
+      <c r="CQ47" t="inlineStr">
         <is>
           <t>r59</t>
         </is>
@@ -2676,7 +2691,7 @@
           <t>state 46</t>
         </is>
       </c>
-      <c r="CR48" t="inlineStr">
+      <c r="CQ48" t="inlineStr">
         <is>
           <t>r60</t>
         </is>
@@ -2688,7 +2703,7 @@
           <t>state 47</t>
         </is>
       </c>
-      <c r="CR49" t="inlineStr">
+      <c r="CQ49" t="inlineStr">
         <is>
           <t>r61</t>
         </is>
@@ -2702,7 +2717,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>s179</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2732,7 @@
           <t>r68</t>
         </is>
       </c>
-      <c r="CR51" t="inlineStr">
+      <c r="CQ51" t="inlineStr">
         <is>
           <t>r68</t>
         </is>
@@ -2734,7 +2749,7 @@
           <t>r69</t>
         </is>
       </c>
-      <c r="CR52" t="inlineStr">
+      <c r="CQ52" t="inlineStr">
         <is>
           <t>r69</t>
         </is>
@@ -2748,22 +2763,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS53" t="inlineStr">
         <is>
-          <t>s181</t>
-        </is>
-      </c>
-      <c r="CL53" t="inlineStr">
-        <is>
-          <t>s180</t>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="CK53" t="inlineStr">
+        <is>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -2775,42 +2790,42 @@
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>s55</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>s56</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>s57</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>s58</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>s59</t>
-        </is>
-      </c>
-      <c r="CM54" t="inlineStr">
-        <is>
-          <t>s184</t>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="CL54" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="CN54" t="inlineStr">
+        <is>
+          <t>53</t>
         </is>
       </c>
       <c r="CO54" t="inlineStr">
         <is>
-          <t>s53</t>
-        </is>
-      </c>
-      <c r="CP54" t="inlineStr">
-        <is>
-          <t>s54</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2879,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>s192</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2891,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>s193</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2903,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>s194</t>
+          <t>196</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2915,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>s195</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2927,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>s196</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -2924,32 +2939,32 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BW66" t="inlineStr">
         <is>
-          <t>s197</t>
-        </is>
-      </c>
-      <c r="CQ66" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="CP66" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3019,7 @@
           <t>r89</t>
         </is>
       </c>
-      <c r="CR67" t="inlineStr">
+      <c r="CQ67" t="inlineStr">
         <is>
           <t>r93</t>
         </is>
@@ -3056,7 +3071,7 @@
           <t>r95</t>
         </is>
       </c>
-      <c r="CR68" t="inlineStr">
+      <c r="CQ68" t="inlineStr">
         <is>
           <t>r95</t>
         </is>
@@ -3103,7 +3118,7 @@
           <t>r94</t>
         </is>
       </c>
-      <c r="CR69" t="inlineStr">
+      <c r="CQ69" t="inlineStr">
         <is>
           <t>r94</t>
         </is>
@@ -3150,7 +3165,7 @@
           <t>r96</t>
         </is>
       </c>
-      <c r="CR70" t="inlineStr">
+      <c r="CQ70" t="inlineStr">
         <is>
           <t>r96</t>
         </is>
@@ -3164,107 +3179,107 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr">
         <is>
-          <t>s203</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AZ71" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA71" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB71" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE71" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF71" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG71" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI71" t="inlineStr">
         <is>
-          <t>s13</t>
-        </is>
-      </c>
-      <c r="CI71" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CH71" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3291,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>s224</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3308,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>s124</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -3322,15 +3337,15 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>s17</t>
+          <t>17</t>
         </is>
       </c>
       <c r="BK75" t="inlineStr">
         <is>
-          <t>s226</t>
-        </is>
-      </c>
-      <c r="CR75" t="inlineStr">
+          <t>228</t>
+        </is>
+      </c>
+      <c r="CQ75" t="inlineStr">
         <is>
           <t>r13</t>
         </is>
@@ -3347,7 +3362,7 @@
           <t>r14</t>
         </is>
       </c>
-      <c r="CR76" t="inlineStr">
+      <c r="CQ76" t="inlineStr">
         <is>
           <t>r14</t>
         </is>
@@ -3361,27 +3376,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>s228</t>
+          <t>230</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE77" t="inlineStr">
-        <is>
-          <t>s168</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD77" t="inlineStr">
+        <is>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -3393,82 +3408,82 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>s242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>s236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>s239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>s241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL78" t="inlineStr">
         <is>
-          <t>s233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="BS78" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT78" t="inlineStr">
         <is>
-          <t>s243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="BW78" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY78" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA78" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB78" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC78" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD78" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF78" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH78" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ78" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE78" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG78" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP78" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3528,7 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="CR79" t="inlineStr">
+      <c r="CQ79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -3560,7 +3575,7 @@
           <t>r93</t>
         </is>
       </c>
-      <c r="CR80" t="inlineStr">
+      <c r="CQ80" t="inlineStr">
         <is>
           <t>r93</t>
         </is>
@@ -3607,7 +3622,7 @@
           <t>r95</t>
         </is>
       </c>
-      <c r="CR81" t="inlineStr">
+      <c r="CQ81" t="inlineStr">
         <is>
           <t>r95</t>
         </is>
@@ -3654,7 +3669,7 @@
           <t>r97</t>
         </is>
       </c>
-      <c r="CR82" t="inlineStr">
+      <c r="CQ82" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
@@ -3671,7 +3686,7 @@
           <t>r17</t>
         </is>
       </c>
-      <c r="CR83" t="inlineStr">
+      <c r="CQ83" t="inlineStr">
         <is>
           <t>r17</t>
         </is>
@@ -3685,27 +3700,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>s249</t>
+          <t>251</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE84" t="inlineStr">
-        <is>
-          <t>s168</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD84" t="inlineStr">
+        <is>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -3717,112 +3732,112 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
         <is>
-          <t>s255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AZ85" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA85" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB85" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE85" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF85" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG85" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI85" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BM85" t="inlineStr">
         <is>
-          <t>s254</t>
-        </is>
-      </c>
-      <c r="CI85" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="CH85" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3849,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>s276</t>
+          <t>278</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3866,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>s123</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -3863,87 +3878,87 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>s156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU88" t="inlineStr">
         <is>
-          <t>s65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL88" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BR88" t="inlineStr">
         <is>
-          <t>s278</t>
+          <t>280</t>
         </is>
       </c>
       <c r="BS88" t="inlineStr">
         <is>
-          <t>s279</t>
+          <t>281</t>
         </is>
       </c>
       <c r="BT88" t="inlineStr">
         <is>
-          <t>s282</t>
+          <t>284</t>
         </is>
       </c>
       <c r="BW88" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY88" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA88" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB88" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC88" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD88" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF88" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH88" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ88" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE88" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG88" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP88" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -3955,17 +3970,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS89" t="inlineStr">
         <is>
-          <t>s295</t>
+          <t>297</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3992,22 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AU90" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS90" t="inlineStr">
         <is>
-          <t>s181</t>
-        </is>
-      </c>
-      <c r="CL90" t="inlineStr">
-        <is>
-          <t>s298</t>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="CK90" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
     </row>
@@ -4004,32 +4019,32 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>s307</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AU91" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS91" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BY91" t="inlineStr">
         <is>
-          <t>s302</t>
+          <t>304</t>
         </is>
       </c>
       <c r="CA91" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -4041,27 +4056,27 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>s308</t>
+          <t>310</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE92" t="inlineStr">
-        <is>
-          <t>s168</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -4073,27 +4088,27 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>s313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE93" t="inlineStr">
-        <is>
-          <t>s168</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -4105,66 +4120,66 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>s307</t>
+          <t>309</t>
         </is>
       </c>
       <c r="AU94" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS94" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="CA94" t="inlineStr">
         <is>
-          <t>s318</t>
+          <t>320</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>state 151</t>
+          <t>state 153</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>s323</t>
+          <t>325</t>
         </is>
       </c>
       <c r="BX95" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>state 154</t>
+          <t>state 156</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4192,7 +4207,7 @@
           <t>r43</t>
         </is>
       </c>
-      <c r="CR96" t="inlineStr">
+      <c r="CQ96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -4201,7 +4216,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>state 156</t>
+          <t>state 158</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4254,7 +4269,7 @@
           <t>r90</t>
         </is>
       </c>
-      <c r="CR97" t="inlineStr">
+      <c r="CQ97" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
@@ -4263,7 +4278,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>state 161</t>
+          <t>state 163</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4293,25 +4308,25 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE98" t="inlineStr">
-        <is>
-          <t>s168</t>
-        </is>
-      </c>
-      <c r="CR98" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD98" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="CQ98" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
@@ -4320,252 +4335,252 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>state 167</t>
+          <t>state 169</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>s335</t>
+          <t>337</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>s334</t>
-        </is>
-      </c>
-      <c r="CD99" t="inlineStr">
-        <is>
-          <t>s333</t>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="CC99" t="inlineStr">
+        <is>
+          <t>335</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>state 168</t>
+          <t>state 170</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU100" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BW100" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CF100" t="inlineStr">
-        <is>
-          <t>s336</t>
-        </is>
-      </c>
-      <c r="CH100" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ100" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CE100" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="CG100" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP100" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>state 172</t>
+          <t>state 174</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>s99</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AU101" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BW101" t="inlineStr">
         <is>
-          <t>s100</t>
-        </is>
-      </c>
-      <c r="CH101" t="inlineStr">
-        <is>
-          <t>s345</t>
-        </is>
-      </c>
-      <c r="CQ101" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CG101" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="CP101" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>state 179</t>
+          <t>state 181</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>s242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>s24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>s51</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>s239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>s241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL102" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BS102" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT102" t="inlineStr">
         <is>
-          <t>s364</t>
+          <t>366</t>
         </is>
       </c>
       <c r="BU102" t="inlineStr">
         <is>
-          <t>s50</t>
+          <t>50</t>
         </is>
       </c>
       <c r="BW102" t="inlineStr">
         <is>
-          <t>s358</t>
+          <t>360</t>
         </is>
       </c>
       <c r="BY102" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA102" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB102" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC102" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD102" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF102" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH102" t="inlineStr">
-        <is>
-          <t>s41</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE102" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG102" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CI102" t="inlineStr">
+        <is>
+          <t>355</t>
         </is>
       </c>
       <c r="CJ102" t="inlineStr">
         <is>
-          <t>s353</t>
-        </is>
-      </c>
-      <c r="CK102" t="inlineStr">
-        <is>
-          <t>s49</t>
-        </is>
-      </c>
-      <c r="CQ102" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="CP102" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>state 180</t>
+          <t>state 182</t>
         </is>
       </c>
       <c r="AI103" t="inlineStr">
         <is>
-          <t>s374</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>state 181</t>
+          <t>state 183</t>
         </is>
       </c>
       <c r="AI104" t="inlineStr">
@@ -4575,14 +4590,14 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>s125</t>
+          <t>125</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>state 182</t>
+          <t>state 184</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4620,7 +4635,7 @@
           <t>r89</t>
         </is>
       </c>
-      <c r="CR105" t="inlineStr">
+      <c r="CQ105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
@@ -4629,7 +4644,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>state 183</t>
+          <t>state 185</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4667,7 +4682,7 @@
           <t>r90</t>
         </is>
       </c>
-      <c r="CR106" t="inlineStr">
+      <c r="CQ106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
@@ -4676,46 +4691,46 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>state 184</t>
+          <t>state 186</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>s377</t>
-        </is>
-      </c>
-      <c r="CN107" t="inlineStr">
-        <is>
-          <t>s376</t>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="CM107" t="inlineStr">
+        <is>
+          <t>378</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>state 192</t>
+          <t>state 194</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>s183</t>
+          <t>185</t>
         </is>
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>s182</t>
+          <t>184</t>
         </is>
       </c>
       <c r="BS108" t="inlineStr">
         <is>
-          <t>s378</t>
+          <t>380</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>state 193</t>
+          <t>state 195</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4728,7 +4743,7 @@
           <t>r83</t>
         </is>
       </c>
-      <c r="CR109" t="inlineStr">
+      <c r="CQ109" t="inlineStr">
         <is>
           <t>r83</t>
         </is>
@@ -4737,7 +4752,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>state 194</t>
+          <t>state 196</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4745,7 +4760,7 @@
           <t>r85</t>
         </is>
       </c>
-      <c r="CR110" t="inlineStr">
+      <c r="CQ110" t="inlineStr">
         <is>
           <t>r85</t>
         </is>
@@ -4754,7 +4769,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>state 195</t>
+          <t>state 197</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4762,7 +4777,7 @@
           <t>r86</t>
         </is>
       </c>
-      <c r="CR111" t="inlineStr">
+      <c r="CQ111" t="inlineStr">
         <is>
           <t>r86</t>
         </is>
@@ -4771,7 +4786,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>state 196</t>
+          <t>state 198</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4779,7 +4794,7 @@
           <t>r87</t>
         </is>
       </c>
-      <c r="CR112" t="inlineStr">
+      <c r="CQ112" t="inlineStr">
         <is>
           <t>r87</t>
         </is>
@@ -4788,7 +4803,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>state 197</t>
+          <t>state 199</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4796,7 +4811,7 @@
           <t>r88</t>
         </is>
       </c>
-      <c r="CR113" t="inlineStr">
+      <c r="CQ113" t="inlineStr">
         <is>
           <t>r88</t>
         </is>
@@ -4805,119 +4820,119 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>state 203</t>
+          <t>state 205</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>s381</t>
+          <t>383</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS114" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AZ114" t="inlineStr">
         <is>
-          <t>s70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="BA114" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB114" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC114" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD114" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE114" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF114" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG114" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH114" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI114" t="inlineStr">
         <is>
-          <t>s13</t>
-        </is>
-      </c>
-      <c r="CI114" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CH114" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>state 224</t>
+          <t>state 226</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4929,7 +4944,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>state 226</t>
+          <t>state 228</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4937,7 +4952,7 @@
           <t>r12</t>
         </is>
       </c>
-      <c r="CR116" t="inlineStr">
+      <c r="CQ116" t="inlineStr">
         <is>
           <t>r12</t>
         </is>
@@ -4946,124 +4961,124 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>state 228</t>
+          <t>state 230</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>s255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB117" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC117" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD117" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE117" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF117" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG117" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH117" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI117" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BM117" t="inlineStr">
         <is>
-          <t>s402</t>
-        </is>
-      </c>
-      <c r="CI117" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="CH117" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>state 233</t>
+          <t>state 235</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5093,25 +5108,25 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>s38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>s39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>s40</t>
-        </is>
-      </c>
-      <c r="CE118" t="inlineStr">
-        <is>
-          <t>s168</t>
-        </is>
-      </c>
-      <c r="CR118" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="CD118" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="CQ118" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
@@ -5120,94 +5135,94 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>state 236</t>
+          <t>state 238</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>s242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>s236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="AU119" t="inlineStr">
         <is>
-          <t>s239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV119" t="inlineStr">
         <is>
-          <t>s241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL119" t="inlineStr">
         <is>
-          <t>s233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="BS119" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT119" t="inlineStr">
         <is>
-          <t>s439</t>
+          <t>441</t>
         </is>
       </c>
       <c r="BW119" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY119" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA119" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB119" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC119" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD119" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF119" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH119" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ119" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE119" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG119" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP119" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>state 239</t>
+          <t>state 241</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5255,7 +5270,7 @@
           <t>r89</t>
         </is>
       </c>
-      <c r="CR120" t="inlineStr">
+      <c r="CQ120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
@@ -5264,7 +5279,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>state 241</t>
+          <t>state 243</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5307,7 +5322,7 @@
           <t>r91</t>
         </is>
       </c>
-      <c r="CR121" t="inlineStr">
+      <c r="CQ121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
@@ -5316,7 +5331,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>state 242</t>
+          <t>state 244</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5369,7 +5384,7 @@
           <t>r90</t>
         </is>
       </c>
-      <c r="CR122" t="inlineStr">
+      <c r="CQ122" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
@@ -5378,168 +5393,168 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>state 243</t>
+          <t>state 245</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>s445</t>
+          <t>447</t>
         </is>
       </c>
       <c r="BX123" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>state 249</t>
+          <t>state 251</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR124" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS124" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr">
         <is>
-          <t>s255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AZ124" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA124" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB124" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC124" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD124" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE124" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF124" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG124" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH124" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI124" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BM124" t="inlineStr">
         <is>
-          <t>s450</t>
-        </is>
-      </c>
-      <c r="CI124" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="CH124" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>state 254</t>
+          <t>state 256</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>s472</t>
+          <t>474</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>state 255</t>
+          <t>state 257</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5549,201 +5564,201 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR126" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS126" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AZ126" t="inlineStr">
         <is>
-          <t>s70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="BA126" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB126" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC126" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD126" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE126" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF126" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG126" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH126" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI126" t="inlineStr">
         <is>
-          <t>s13</t>
-        </is>
-      </c>
-      <c r="CI126" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="CH126" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>state 276</t>
+          <t>state 278</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>s156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>s65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL127" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BP127" t="inlineStr">
         <is>
-          <t>s493</t>
+          <t>495</t>
         </is>
       </c>
       <c r="BS127" t="inlineStr">
         <is>
-          <t>s494</t>
+          <t>496</t>
         </is>
       </c>
       <c r="BT127" t="inlineStr">
         <is>
-          <t>s497</t>
+          <t>499</t>
         </is>
       </c>
       <c r="BW127" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY127" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA127" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB127" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC127" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD127" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF127" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH127" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ127" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE127" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG127" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP127" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>state 278</t>
+          <t>state 280</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -5755,7 +5770,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>state 279</t>
+          <t>state 281</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5783,7 +5798,7 @@
           <t>r43</t>
         </is>
       </c>
-      <c r="CR129" t="inlineStr">
+      <c r="CQ129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -5792,7 +5807,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>state 282</t>
+          <t>state 284</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -5802,41 +5817,41 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="BX130" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>state 295</t>
+          <t>state 297</t>
         </is>
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>s514</t>
+          <t>516</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>state 298</t>
+          <t>state 300</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
@@ -5848,7 +5863,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>state 302</t>
+          <t>state 304</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5871,6 +5886,16 @@
           <t>r34</t>
         </is>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="X133" t="inlineStr">
         <is>
           <t>r34</t>
@@ -5878,10 +5903,10 @@
       </c>
       <c r="BZ133" t="inlineStr">
         <is>
-          <t>s150</t>
-        </is>
-      </c>
-      <c r="CR133" t="inlineStr">
+          <t>150</t>
+        </is>
+      </c>
+      <c r="CQ133" t="inlineStr">
         <is>
           <t>r34</t>
         </is>
@@ -5890,198 +5915,198 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>state 307</t>
+          <t>state 309</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>s156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU134" t="inlineStr">
         <is>
-          <t>s65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AV134" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL134" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BS134" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT134" t="inlineStr">
         <is>
-          <t>s516</t>
+          <t>520</t>
         </is>
       </c>
       <c r="BW134" t="inlineStr">
         <is>
-          <t>s100</t>
+          <t>100</t>
         </is>
       </c>
       <c r="BY134" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA134" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB134" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC134" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD134" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF134" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH134" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ134" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE134" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG134" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP134" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>state 308</t>
+          <t>state 310</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>s532</t>
+          <t>536</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>state 313</t>
+          <t>state 315</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>s242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>s239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>s241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL136" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BS136" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT136" t="inlineStr">
         <is>
-          <t>s540</t>
+          <t>544</t>
         </is>
       </c>
       <c r="BV136" t="inlineStr">
         <is>
-          <t>s533</t>
+          <t>537</t>
         </is>
       </c>
       <c r="BW136" t="inlineStr">
         <is>
-          <t>s534</t>
+          <t>538</t>
         </is>
       </c>
       <c r="BY136" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA136" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB136" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC136" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD136" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF136" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH136" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ136" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE136" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG136" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP136" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>state 318</t>
+          <t>state 320</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6109,7 +6134,7 @@
           <t>r39</t>
         </is>
       </c>
-      <c r="CR137" t="inlineStr">
+      <c r="CQ137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
@@ -6118,7 +6143,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>state 323</t>
+          <t>state 325</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6156,7 +6181,7 @@
           <t>r64</t>
         </is>
       </c>
-      <c r="CR138" t="inlineStr">
+      <c r="CQ138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
@@ -6165,7 +6190,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>state 332</t>
+          <t>state 334</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6203,7 +6228,7 @@
           <t>r62</t>
         </is>
       </c>
-      <c r="CR139" t="inlineStr">
+      <c r="CQ139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
@@ -6212,7 +6237,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>state 333</t>
+          <t>state 335</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6245,7 +6270,7 @@
           <t>r46</t>
         </is>
       </c>
-      <c r="CR140" t="inlineStr">
+      <c r="CQ140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
@@ -6254,7 +6279,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>state 334</t>
+          <t>state 336</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6287,7 +6312,7 @@
           <t>r91</t>
         </is>
       </c>
-      <c r="CR141" t="inlineStr">
+      <c r="CQ141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
@@ -6296,7 +6321,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>state 335</t>
+          <t>state 337</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6329,7 +6354,7 @@
           <t>r92</t>
         </is>
       </c>
-      <c r="CR142" t="inlineStr">
+      <c r="CQ142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
@@ -6338,7 +6363,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>state 336</t>
+          <t>state 338</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6378,40 +6403,40 @@
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>s42</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>s43</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr">
         <is>
-          <t>s44</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE143" t="inlineStr">
         <is>
-          <t>s45</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>s46</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t>s47</t>
-        </is>
-      </c>
-      <c r="CG143" t="inlineStr">
-        <is>
-          <t>s172</t>
-        </is>
-      </c>
-      <c r="CR143" t="inlineStr">
+          <t>47</t>
+        </is>
+      </c>
+      <c r="CF143" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="CQ143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
@@ -6420,7 +6445,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>state 345</t>
+          <t>state 347</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6458,7 +6483,7 @@
           <t>r54</t>
         </is>
       </c>
-      <c r="CR144" t="inlineStr">
+      <c r="CQ144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
@@ -6467,7 +6492,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>state 353</t>
+          <t>state 355</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6475,7 +6500,7 @@
           <t>r65</t>
         </is>
       </c>
-      <c r="CR145" t="inlineStr">
+      <c r="CQ145" t="inlineStr">
         <is>
           <t>r65</t>
         </is>
@@ -6484,7 +6509,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>state 358</t>
+          <t>state 360</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6522,7 +6547,7 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="CR146" t="inlineStr">
+      <c r="CQ146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -6531,7 +6556,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>state 364</t>
+          <t>state 366</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6541,25 +6566,25 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="BX147" t="inlineStr">
         <is>
-          <t>s126</t>
-        </is>
-      </c>
-      <c r="CR147" t="inlineStr">
+          <t>126</t>
+        </is>
+      </c>
+      <c r="CQ147" t="inlineStr">
         <is>
           <t>r71</t>
         </is>
@@ -6568,7 +6593,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>state 374</t>
+          <t>state 376</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6576,7 +6601,7 @@
           <t>r72</t>
         </is>
       </c>
-      <c r="CR148" t="inlineStr">
+      <c r="CQ148" t="inlineStr">
         <is>
           <t>r72</t>
         </is>
@@ -6585,7 +6610,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>state 376</t>
+          <t>state 378</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6595,10 +6620,10 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>s193</t>
-        </is>
-      </c>
-      <c r="CR149" t="inlineStr">
+          <t>195</t>
+        </is>
+      </c>
+      <c r="CQ149" t="inlineStr">
         <is>
           <t>r75</t>
         </is>
@@ -6607,7 +6632,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>state 377</t>
+          <t>state 379</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6620,7 +6645,7 @@
           <t>r84</t>
         </is>
       </c>
-      <c r="CR150" t="inlineStr">
+      <c r="CQ150" t="inlineStr">
         <is>
           <t>r84</t>
         </is>
@@ -6629,22 +6654,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>state 378</t>
+          <t>state 380</t>
         </is>
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>s562</t>
+          <t>566</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>state 381</t>
-        </is>
-      </c>
-      <c r="CR152" t="inlineStr">
+          <t>state 383</t>
+        </is>
+      </c>
+      <c r="CQ152" t="inlineStr">
         <is>
           <t>r1</t>
         </is>
@@ -6653,51 +6678,51 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>state 402</t>
+          <t>state 404</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>s563</t>
+          <t>567</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>state 439</t>
+          <t>state 441</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>s564</t>
+          <t>568</t>
         </is>
       </c>
       <c r="BX154" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>state 445</t>
+          <t>state 447</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6735,7 +6760,7 @@
           <t>r64</t>
         </is>
       </c>
-      <c r="CR155" t="inlineStr">
+      <c r="CQ155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
@@ -6744,19 +6769,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>state 450</t>
+          <t>state 452</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>s569</t>
+          <t>573</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>state 472</t>
+          <t>state 474</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6764,7 +6789,7 @@
           <t>r20</t>
         </is>
       </c>
-      <c r="CR157" t="inlineStr">
+      <c r="CQ157" t="inlineStr">
         <is>
           <t>r20</t>
         </is>
@@ -6773,19 +6798,19 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>state 493</t>
+          <t>state 495</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>s570</t>
+          <t>574</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>state 494</t>
+          <t>state 496</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6813,7 +6838,7 @@
           <t>r43</t>
         </is>
       </c>
-      <c r="CR159" t="inlineStr">
+      <c r="CQ159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -6822,7 +6847,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>state 497</t>
+          <t>state 499</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -6832,29 +6857,29 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="BX160" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>state 514</t>
+          <t>state 516</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -6866,168 +6891,168 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>state 516</t>
+          <t>state 520</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>s575</t>
+          <t>579</t>
         </is>
       </c>
       <c r="BX162" t="inlineStr">
         <is>
-          <t>s126</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>state 532</t>
+          <t>state 536</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ163" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR163" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS163" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY163" t="inlineStr">
         <is>
-          <t>s255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AZ163" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA163" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB163" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC163" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD163" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE163" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF163" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG163" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH163" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI163" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BM163" t="inlineStr">
         <is>
-          <t>s580</t>
-        </is>
-      </c>
-      <c r="CI163" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="CH163" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>state 533</t>
+          <t>state 537</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>s602</t>
+          <t>606</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>state 534</t>
+          <t>state 538</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7065,7 +7090,7 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="CR165" t="inlineStr">
+      <c r="CQ165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -7074,7 +7099,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>state 540</t>
+          <t>state 544</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7089,25 +7114,25 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>s27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>s28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>s29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="BX166" t="inlineStr">
         <is>
-          <t>s126</t>
-        </is>
-      </c>
-      <c r="CR166" t="inlineStr">
+          <t>126</t>
+        </is>
+      </c>
+      <c r="CQ166" t="inlineStr">
         <is>
           <t>r33</t>
         </is>
@@ -7116,39 +7141,39 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>state 562</t>
+          <t>state 566</t>
         </is>
       </c>
       <c r="AL167" t="inlineStr">
         <is>
-          <t>s55</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>s56</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>s57</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>s58</t>
-        </is>
-      </c>
-      <c r="CO167" t="inlineStr">
-        <is>
-          <t>s607</t>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="CN167" t="inlineStr">
+        <is>
+          <t>611</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>state 563</t>
+          <t>state 567</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7156,7 +7181,7 @@
           <t>r16</t>
         </is>
       </c>
-      <c r="CR168" t="inlineStr">
+      <c r="CQ168" t="inlineStr">
         <is>
           <t>r16</t>
         </is>
@@ -7165,7 +7190,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>state 564</t>
+          <t>state 568</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7203,7 +7228,7 @@
           <t>r44</t>
         </is>
       </c>
-      <c r="CR169" t="inlineStr">
+      <c r="CQ169" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
@@ -7212,7 +7237,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>state 569</t>
+          <t>state 573</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7220,7 +7245,7 @@
           <t>r19</t>
         </is>
       </c>
-      <c r="CR170" t="inlineStr">
+      <c r="CQ170" t="inlineStr">
         <is>
           <t>r19</t>
         </is>
@@ -7229,19 +7254,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>state 570</t>
+          <t>state 574</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>s612</t>
+          <t>616</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>state 575</t>
+          <t>state 579</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7269,7 +7294,7 @@
           <t>r44</t>
         </is>
       </c>
-      <c r="CR172" t="inlineStr">
+      <c r="CQ172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
@@ -7278,235 +7303,235 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>state 580</t>
+          <t>state 584</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>s613</t>
+          <t>617</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>state 602</t>
+          <t>state 606</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>s242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>s33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AU174" t="inlineStr">
         <is>
-          <t>s239</t>
+          <t>241</t>
         </is>
       </c>
       <c r="AV174" t="inlineStr">
         <is>
-          <t>s241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="AW174" t="inlineStr">
         <is>
-          <t>s67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="BL174" t="inlineStr">
         <is>
-          <t>s36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="BS174" t="inlineStr">
         <is>
-          <t>s154</t>
+          <t>156</t>
         </is>
       </c>
       <c r="BT174" t="inlineStr">
         <is>
-          <t>s540</t>
+          <t>544</t>
         </is>
       </c>
       <c r="BV174" t="inlineStr">
         <is>
-          <t>s614</t>
+          <t>618</t>
         </is>
       </c>
       <c r="BW174" t="inlineStr">
         <is>
-          <t>s534</t>
+          <t>538</t>
         </is>
       </c>
       <c r="BY174" t="inlineStr">
         <is>
-          <t>s26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="CA174" t="inlineStr">
         <is>
-          <t>s30</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CB174" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="CC174" t="inlineStr">
         <is>
-          <t>s34</t>
-        </is>
-      </c>
-      <c r="CD174" t="inlineStr">
-        <is>
-          <t>s35</t>
-        </is>
-      </c>
-      <c r="CF174" t="inlineStr">
-        <is>
-          <t>s37</t>
-        </is>
-      </c>
-      <c r="CH174" t="inlineStr">
-        <is>
-          <t>s41</t>
-        </is>
-      </c>
-      <c r="CQ174" t="inlineStr">
-        <is>
-          <t>s68</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CE174" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CG174" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="CP174" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>state 607</t>
+          <t>state 611</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>state 612</t>
+          <t>state 616</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>s18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>s82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>s23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AK176" t="inlineStr">
         <is>
-          <t>s52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AQ176" t="inlineStr">
         <is>
-          <t>s61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AR176" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AS176" t="inlineStr">
         <is>
-          <t>s63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr">
         <is>
-          <t>s64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
         <is>
-          <t>s255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="AZ176" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA176" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB176" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BC176" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="BD176" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="BE176" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="BF176" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="BG176" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="BH176" t="inlineStr">
         <is>
-          <t>s12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="BI176" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="BM176" t="inlineStr">
         <is>
-          <t>s631</t>
-        </is>
-      </c>
-      <c r="CI176" t="inlineStr">
-        <is>
-          <t>s48</t>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="CH176" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>state 613</t>
+          <t>state 617</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7514,7 +7539,7 @@
           <t>r29</t>
         </is>
       </c>
-      <c r="CR177" t="inlineStr">
+      <c r="CQ177" t="inlineStr">
         <is>
           <t>r29</t>
         </is>
@@ -7523,7 +7548,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>state 614</t>
+          <t>state 618</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7531,7 +7556,7 @@
           <t>r31</t>
         </is>
       </c>
-      <c r="CR178" t="inlineStr">
+      <c r="CQ178" t="inlineStr">
         <is>
           <t>r31</t>
         </is>
@@ -7540,19 +7565,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>state 631</t>
+          <t>state 635</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>s653</t>
+          <t>657</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>state 653</t>
+          <t>state 657</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7560,7 +7585,7 @@
           <t>r21</t>
         </is>
       </c>
-      <c r="CR180" t="inlineStr">
+      <c r="CQ180" t="inlineStr">
         <is>
           <t>r21</t>
         </is>

--- a/grammar/enchanto/LR_Table.xlsx
+++ b/grammar/enchanto/LR_Table.xlsx
@@ -901,342 +901,342 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>s17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>s20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>s24</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>s31</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>s32</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>s42</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>s43</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>s44</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>s45</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>s46</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>s47</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>s51</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>s56</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>s57</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>s58</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>s59</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>s60</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>s65</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>s15</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>s19</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>s21</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>s22</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>s50</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>s25</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CH2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>s49</t>
         </is>
       </c>
       <c r="CM2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>s53</t>
         </is>
       </c>
       <c r="CN2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>s54</t>
         </is>
       </c>
       <c r="CO2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>s55</t>
         </is>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>s69</t>
         </is>
       </c>
     </row>
@@ -1277,102 +1277,102 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>s70</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>s90</t>
         </is>
       </c>
     </row>
@@ -1399,11 +1399,6 @@
           <t>r4</t>
         </is>
       </c>
-      <c r="CQ7" t="inlineStr">
-        <is>
-          <t>r4</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1416,11 +1411,6 @@
           <t>r5</t>
         </is>
       </c>
-      <c r="CQ8" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1433,11 +1423,6 @@
           <t>r6</t>
         </is>
       </c>
-      <c r="CQ9" t="inlineStr">
-        <is>
-          <t>r6</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1450,11 +1435,6 @@
           <t>r7</t>
         </is>
       </c>
-      <c r="CQ10" t="inlineStr">
-        <is>
-          <t>r7</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1467,11 +1447,6 @@
           <t>r8</t>
         </is>
       </c>
-      <c r="CQ11" t="inlineStr">
-        <is>
-          <t>r8</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1484,11 +1459,6 @@
           <t>r9</t>
         </is>
       </c>
-      <c r="CQ12" t="inlineStr">
-        <is>
-          <t>r9</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1501,11 +1471,6 @@
           <t>r10</t>
         </is>
       </c>
-      <c r="CQ13" t="inlineStr">
-        <is>
-          <t>r10</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1518,11 +1483,6 @@
           <t>r11</t>
         </is>
       </c>
-      <c r="CQ14" t="inlineStr">
-        <is>
-          <t>r11</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1537,32 +1497,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>s17</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>s91</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>s94</t>
         </is>
       </c>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="CQ15" t="inlineStr">
-        <is>
-          <t>r15</t>
+          <t>s15</t>
         </is>
       </c>
     </row>
@@ -1574,52 +1529,52 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>s96</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CE16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG16" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP16" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1591,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>s16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>r18</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>s106</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="CQ17" t="inlineStr">
-        <is>
-          <t>r18</t>
+          <t>s15</t>
         </is>
       </c>
     </row>
@@ -1663,52 +1618,52 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>s109</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP18" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1675,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>s119</t>
         </is>
       </c>
     </row>
@@ -1732,17 +1687,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>s122</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>s120</t>
         </is>
       </c>
       <c r="BQ20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>s19</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1741,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>r84</t>
+          <t>r77</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1806,7 +1761,27 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>r92</t>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>r90</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -1814,9 +1789,54 @@
           <t>r97</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>s124</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -1827,11 +1847,6 @@
       <c r="AJ22" t="inlineStr">
         <is>
           <t>r90</t>
-        </is>
-      </c>
-      <c r="CQ22" t="inlineStr">
-        <is>
-          <t>r97</t>
         </is>
       </c>
     </row>
@@ -1841,26 +1856,46 @@
           <t>state 21</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr">
         <is>
           <t>r43</t>
@@ -1873,12 +1908,7 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="CQ23" t="inlineStr">
-        <is>
-          <t>r43</t>
+          <t>s125</t>
         </is>
       </c>
     </row>
@@ -1910,27 +1940,22 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="BX24" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="CQ24" t="inlineStr">
-        <is>
-          <t>r71</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -1942,52 +1967,52 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL25" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>s130</t>
         </is>
       </c>
       <c r="BW25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CE25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG25" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP25" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -1999,52 +2024,52 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>s140</t>
         </is>
       </c>
       <c r="BW26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CE26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP26" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -2084,14 +2109,69 @@
           <t>r63</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="CQ27" t="inlineStr">
-        <is>
-          <t>r70</t>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>r63</t>
         </is>
       </c>
     </row>
@@ -2101,34 +2181,44 @@
           <t>state 26</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>r35</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>r35</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>r35</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>r35</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>r35</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>r35</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>s31</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>s32</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -2138,12 +2228,7 @@
       </c>
       <c r="BZ28" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="CQ28" t="inlineStr">
-        <is>
-          <t>r35</t>
+          <t>s150</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2238,17 @@
           <t>state 27</t>
         </is>
       </c>
-      <c r="CQ29" t="inlineStr">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>r36</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>r36</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
         <is>
           <t>r36</t>
         </is>
@@ -2165,7 +2260,17 @@
           <t>state 28</t>
         </is>
       </c>
-      <c r="CQ30" t="inlineStr">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>r37</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>r37</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
         <is>
           <t>r37</t>
         </is>
@@ -2177,7 +2282,17 @@
           <t>state 29</t>
         </is>
       </c>
-      <c r="CQ31" t="inlineStr">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>r38</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>r38</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
         <is>
           <t>r38</t>
         </is>
@@ -2189,32 +2304,47 @@
           <t>state 30</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>r40</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>r40</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>r40</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>r40</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr">
-        <is>
-          <t>r40</t>
-        </is>
-      </c>
-      <c r="CQ32" t="inlineStr">
         <is>
           <t>r40</t>
         </is>
@@ -2226,7 +2356,17 @@
           <t>state 31</t>
         </is>
       </c>
-      <c r="CQ33" t="inlineStr">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>r41</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>r41</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
         <is>
           <t>r41</t>
         </is>
@@ -2238,7 +2378,17 @@
           <t>state 32</t>
         </is>
       </c>
-      <c r="CQ34" t="inlineStr">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>r42</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>r42</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
         <is>
           <t>r42</t>
         </is>
@@ -2252,82 +2402,82 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>s158</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>s65</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL35" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>s163</t>
         </is>
       </c>
       <c r="BS35" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT35" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>s153</t>
         </is>
       </c>
       <c r="BW35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY35" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE35" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP35" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -2337,37 +2487,37 @@
           <t>state 34</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>169</t>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>r45</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>r45</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
-        <is>
-          <t>r45</t>
-        </is>
-      </c>
-      <c r="CQ36" t="inlineStr">
         <is>
           <t>r45</t>
         </is>
@@ -2379,37 +2529,37 @@
           <t>state 35</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
       </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>r47</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr">
-        <is>
-          <t>r47</t>
-        </is>
-      </c>
-      <c r="CQ37" t="inlineStr">
         <is>
           <t>r47</t>
         </is>
@@ -2421,26 +2571,36 @@
           <t>state 36</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr">
         <is>
           <t>r48</t>
@@ -2448,27 +2608,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD38" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="CQ38" t="inlineStr">
-        <is>
-          <t>r48</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -2483,74 +2638,94 @@
           <t>r50</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr">
         <is>
           <t>r50</t>
         </is>
       </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>r50</t>
+        </is>
+      </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>s42</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>s43</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>s44</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>s45</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>s46</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>s47</t>
         </is>
       </c>
       <c r="CF39" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="CQ39" t="inlineStr">
-        <is>
-          <t>r50</t>
+          <t>s174</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2735,27 @@
           <t>state 38</t>
         </is>
       </c>
-      <c r="CQ40" t="inlineStr">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>r51</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>r51</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>r51</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>r51</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
         <is>
           <t>r51</t>
         </is>
@@ -2572,7 +2767,27 @@
           <t>state 39</t>
         </is>
       </c>
-      <c r="CQ41" t="inlineStr">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>r52</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>r52</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>r52</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>r52</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
         <is>
           <t>r52</t>
         </is>
@@ -2584,7 +2799,27 @@
           <t>state 40</t>
         </is>
       </c>
-      <c r="CQ42" t="inlineStr">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>r53</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>r53</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>r53</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>r53</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
         <is>
           <t>r53</t>
         </is>
@@ -2601,37 +2836,87 @@
           <t>r55</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
       </c>
-      <c r="CQ43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>r55</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
         <is>
           <t>r55</t>
         </is>
@@ -2643,7 +2928,27 @@
           <t>state 42</t>
         </is>
       </c>
-      <c r="CQ44" t="inlineStr">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>r56</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>r56</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>r56</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>r56</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
         <is>
           <t>r56</t>
         </is>
@@ -2655,7 +2960,27 @@
           <t>state 43</t>
         </is>
       </c>
-      <c r="CQ45" t="inlineStr">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>r57</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>r57</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>r57</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>r57</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
         <is>
           <t>r57</t>
         </is>
@@ -2667,7 +2992,27 @@
           <t>state 44</t>
         </is>
       </c>
-      <c r="CQ46" t="inlineStr">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>r58</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>r58</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>r58</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>r58</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
         <is>
           <t>r58</t>
         </is>
@@ -2679,7 +3024,27 @@
           <t>state 45</t>
         </is>
       </c>
-      <c r="CQ47" t="inlineStr">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>r59</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>r59</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>r59</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>r59</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
         <is>
           <t>r59</t>
         </is>
@@ -2691,7 +3056,27 @@
           <t>state 46</t>
         </is>
       </c>
-      <c r="CQ48" t="inlineStr">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>r60</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>r60</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>r60</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>r60</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
         <is>
           <t>r60</t>
         </is>
@@ -2703,7 +3088,27 @@
           <t>state 47</t>
         </is>
       </c>
-      <c r="CQ49" t="inlineStr">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>r61</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>r61</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>r61</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>r61</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
         <is>
           <t>r61</t>
         </is>
@@ -2717,7 +3122,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>s181</t>
         </is>
       </c>
     </row>
@@ -2732,11 +3137,6 @@
           <t>r68</t>
         </is>
       </c>
-      <c r="CQ51" t="inlineStr">
-        <is>
-          <t>r68</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2749,11 +3149,6 @@
           <t>r69</t>
         </is>
       </c>
-      <c r="CQ52" t="inlineStr">
-        <is>
-          <t>r69</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2763,22 +3158,22 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>s185</t>
         </is>
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>s184</t>
         </is>
       </c>
       <c r="BS53" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>s183</t>
         </is>
       </c>
       <c r="CK53" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>s182</t>
         </is>
       </c>
     </row>
@@ -2790,42 +3185,42 @@
       </c>
       <c r="AL54" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>s56</t>
         </is>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>s57</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>s58</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>s59</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>s60</t>
         </is>
       </c>
       <c r="CL54" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>s186</t>
         </is>
       </c>
       <c r="CN54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>s54</t>
         </is>
       </c>
       <c r="CO54" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>s55</t>
         </is>
       </c>
     </row>
@@ -2835,6 +3230,11 @@
           <t>state 53</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>s194</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2842,6 +3242,11 @@
           <t>state 54</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>r78</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2849,6 +3254,11 @@
           <t>state 55</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>r79</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2856,6 +3266,11 @@
           <t>state 56</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>r80</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2863,6 +3278,11 @@
           <t>state 57</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>r81</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2870,6 +3290,11 @@
           <t>state 58</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>r82</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2877,9 +3302,9 @@
           <t>state 59</t>
         </is>
       </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>194</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>r83</t>
         </is>
       </c>
     </row>
@@ -2889,9 +3314,9 @@
           <t>state 60</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>195</t>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>s195</t>
         </is>
       </c>
     </row>
@@ -2903,7 +3328,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>s196</t>
         </is>
       </c>
     </row>
@@ -2915,7 +3340,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>s197</t>
         </is>
       </c>
     </row>
@@ -2927,7 +3352,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>s198</t>
         </is>
       </c>
     </row>
@@ -2939,32 +3364,32 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BW66" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>s199</t>
         </is>
       </c>
       <c r="CP66" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -2974,39 +3399,49 @@
           <t>state 65</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>r93</t>
+          <t>r89</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>r93</t>
+          <t>r89</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>r93</t>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>r89</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>r93</t>
+          <t>r89</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
@@ -3017,11 +3452,6 @@
       <c r="AJ67" t="inlineStr">
         <is>
           <t>r89</t>
-        </is>
-      </c>
-      <c r="CQ67" t="inlineStr">
-        <is>
-          <t>r93</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3461,19 @@
           <t>state 66</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>r95</t>
+          <t>r91</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>r95</t>
+          <t>r91</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>r95</t>
+          <t>r91</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -3066,14 +3481,19 @@
           <t>r91</t>
         </is>
       </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>r91</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>r91</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="CQ68" t="inlineStr">
-        <is>
-          <t>r95</t>
+          <t>r91</t>
         </is>
       </c>
     </row>
@@ -3083,46 +3503,6 @@
           <t>state 67</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
-      <c r="CQ69" t="inlineStr">
-        <is>
-          <t>r94</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3160,12 +3540,67 @@
           <t>r96</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr">
         <is>
           <t>r96</t>
         </is>
       </c>
-      <c r="CQ70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>r96</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr">
         <is>
           <t>r96</t>
         </is>
@@ -3179,107 +3614,107 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>s205</t>
         </is>
       </c>
       <c r="AZ71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="CH71" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3726,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>s226</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3743,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>s124</t>
         </is>
       </c>
     </row>
@@ -3323,6 +3758,51 @@
           <t>r3</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="AR74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3337,17 +3817,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>s17</t>
         </is>
       </c>
       <c r="BK75" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="CQ75" t="inlineStr">
-        <is>
-          <t>r13</t>
+          <t>s228</t>
         </is>
       </c>
     </row>
@@ -3362,11 +3837,6 @@
           <t>r14</t>
         </is>
       </c>
-      <c r="CQ76" t="inlineStr">
-        <is>
-          <t>r14</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3376,27 +3846,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>s230</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD77" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -3408,82 +3878,82 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>s244</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>s238</t>
         </is>
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>s241</t>
         </is>
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>s243</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL78" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>s235</t>
         </is>
       </c>
       <c r="BS78" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT78" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>s245</t>
         </is>
       </c>
       <c r="BW78" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY78" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA78" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB78" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC78" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE78" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG78" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP78" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -3498,37 +3968,87 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="CQ79" t="inlineStr">
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -3540,46 +4060,6 @@
           <t>state 102</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="CQ80" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3587,46 +4067,6 @@
           <t>state 104</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="CQ81" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3664,12 +4104,67 @@
           <t>r97</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
       <c r="X82" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
       </c>
-      <c r="CQ82" t="inlineStr">
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
@@ -3686,7 +4181,7 @@
           <t>r17</t>
         </is>
       </c>
-      <c r="CQ83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>r17</t>
         </is>
@@ -3700,27 +4195,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>s251</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD84" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -3732,112 +4227,112 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>s257</t>
         </is>
       </c>
       <c r="AZ85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG85" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI85" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BM85" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>s256</t>
         </is>
       </c>
       <c r="CH85" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -3849,7 +4344,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>s278</t>
         </is>
       </c>
     </row>
@@ -3866,7 +4361,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>s123</t>
         </is>
       </c>
     </row>
@@ -3878,87 +4373,87 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>s158</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU88" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>s65</t>
         </is>
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL88" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BR88" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>s280</t>
         </is>
       </c>
       <c r="BS88" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>s281</t>
         </is>
       </c>
       <c r="BT88" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>s284</t>
         </is>
       </c>
       <c r="BW88" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY88" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA88" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB88" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC88" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE88" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG88" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP88" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -3970,17 +4465,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>s185</t>
         </is>
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>s184</t>
         </is>
       </c>
       <c r="BS89" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>s297</t>
         </is>
       </c>
     </row>
@@ -3992,22 +4487,22 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>s185</t>
         </is>
       </c>
       <c r="AU90" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>s184</t>
         </is>
       </c>
       <c r="BS90" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>s183</t>
         </is>
       </c>
       <c r="CK90" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>s300</t>
         </is>
       </c>
     </row>
@@ -4019,32 +4514,32 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>s185</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>s309</t>
         </is>
       </c>
       <c r="AU91" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>s184</t>
         </is>
       </c>
       <c r="BS91" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BY91" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>s304</t>
         </is>
       </c>
       <c r="CA91" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
     </row>
@@ -4056,27 +4551,27 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>s310</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD92" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -4088,27 +4583,27 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>s315</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD93" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -4120,27 +4615,27 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>s185</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>s309</t>
         </is>
       </c>
       <c r="AU94" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>s184</t>
         </is>
       </c>
       <c r="BS94" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="CA94" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>s320</t>
         </is>
       </c>
     </row>
@@ -4152,27 +4647,27 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>s325</t>
         </is>
       </c>
       <c r="BX95" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -4182,32 +4677,47 @@
           <t>state 156</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
       <c r="X96" t="inlineStr">
-        <is>
-          <t>r43</t>
-        </is>
-      </c>
-      <c r="CQ96" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -4251,7 +4761,27 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>r92</t>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>r90</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -4259,6 +4789,51 @@
           <t>r97</t>
         </is>
       </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
       <c r="AI97" t="inlineStr">
         <is>
           <t>r90</t>
@@ -4267,11 +4842,6 @@
       <c r="AJ97" t="inlineStr">
         <is>
           <t>r90</t>
-        </is>
-      </c>
-      <c r="CQ97" t="inlineStr">
-        <is>
-          <t>r97</t>
         </is>
       </c>
     </row>
@@ -4281,26 +4851,36 @@
           <t>state 163</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
       <c r="X98" t="inlineStr">
         <is>
           <t>r48</t>
@@ -4308,27 +4888,22 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD98" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="CQ98" t="inlineStr">
-        <is>
-          <t>r48</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -4340,17 +4915,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>s337</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>s336</t>
         </is>
       </c>
       <c r="CC99" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>s335</t>
         </is>
       </c>
     </row>
@@ -4362,47 +4937,47 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU100" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BW100" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CE100" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>s338</t>
         </is>
       </c>
       <c r="CG100" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP100" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -4414,42 +4989,42 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>s105</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>s99</t>
         </is>
       </c>
       <c r="AU101" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>s102</t>
         </is>
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>s104</t>
         </is>
       </c>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BW101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="CG101" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>s347</t>
         </is>
       </c>
       <c r="CP101" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -4461,107 +5036,107 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>s244</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>s24</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>s51</t>
         </is>
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>s241</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>s243</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL102" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BS102" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT102" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>s366</t>
         </is>
       </c>
       <c r="BU102" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>s50</t>
         </is>
       </c>
       <c r="BW102" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>s360</t>
         </is>
       </c>
       <c r="BY102" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB102" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC102" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE102" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG102" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CI102" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>s355</t>
         </is>
       </c>
       <c r="CJ102" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>s49</t>
         </is>
       </c>
       <c r="CP102" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -4573,7 +5148,7 @@
       </c>
       <c r="AI103" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>s376</t>
         </is>
       </c>
     </row>
@@ -4590,7 +5165,7 @@
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>s125</t>
         </is>
       </c>
     </row>
@@ -4600,26 +5175,46 @@
           <t>state 184</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
       <c r="X105" t="inlineStr">
         <is>
           <t>r89</t>
@@ -4631,11 +5226,6 @@
         </is>
       </c>
       <c r="AJ105" t="inlineStr">
-        <is>
-          <t>r89</t>
-        </is>
-      </c>
-      <c r="CQ105" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
@@ -4647,26 +5237,46 @@
           <t>state 185</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
       </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
       <c r="X106" t="inlineStr">
         <is>
           <t>r90</t>
@@ -4678,11 +5288,6 @@
         </is>
       </c>
       <c r="AJ106" t="inlineStr">
-        <is>
-          <t>r90</t>
-        </is>
-      </c>
-      <c r="CQ106" t="inlineStr">
         <is>
           <t>r90</t>
         </is>
@@ -4696,12 +5301,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>s379</t>
         </is>
       </c>
       <c r="CM107" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>s378</t>
         </is>
       </c>
     </row>
@@ -4711,19 +5316,14 @@
           <t>state 194</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>r76</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="AU108" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="BS108" t="inlineStr">
-        <is>
-          <t>380</t>
+          <t>r76</t>
         </is>
       </c>
     </row>
@@ -4733,19 +5333,19 @@
           <t>state 195</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>r83</t>
-        </is>
-      </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>r83</t>
-        </is>
-      </c>
-      <c r="CQ109" t="inlineStr">
-        <is>
-          <t>r83</t>
+          <t>s185</t>
+        </is>
+      </c>
+      <c r="AU109" t="inlineStr">
+        <is>
+          <t>s184</t>
+        </is>
+      </c>
+      <c r="BS109" t="inlineStr">
+        <is>
+          <t>s380</t>
         </is>
       </c>
     </row>
@@ -4760,11 +5360,6 @@
           <t>r85</t>
         </is>
       </c>
-      <c r="CQ110" t="inlineStr">
-        <is>
-          <t>r85</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4777,11 +5372,6 @@
           <t>r86</t>
         </is>
       </c>
-      <c r="CQ111" t="inlineStr">
-        <is>
-          <t>r86</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4794,11 +5384,6 @@
           <t>r87</t>
         </is>
       </c>
-      <c r="CQ112" t="inlineStr">
-        <is>
-          <t>r87</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4811,11 +5396,6 @@
           <t>r88</t>
         </is>
       </c>
-      <c r="CQ113" t="inlineStr">
-        <is>
-          <t>r88</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4825,107 +5405,107 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>s383</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS114" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AZ114" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>s70</t>
         </is>
       </c>
       <c r="BA114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD114" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG114" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI114" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="CH114" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -4940,6 +5520,51 @@
           <t>r2</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="AQ115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4952,11 +5577,6 @@
           <t>r12</t>
         </is>
       </c>
-      <c r="CQ116" t="inlineStr">
-        <is>
-          <t>r12</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4966,112 +5586,112 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS117" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>s257</t>
         </is>
       </c>
       <c r="AZ117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA117" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB117" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC117" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD117" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI117" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BM117" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>s404</t>
         </is>
       </c>
       <c r="CH117" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -5081,26 +5701,36 @@
           <t>state 235</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>r48</t>
         </is>
       </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>r48</t>
+        </is>
+      </c>
       <c r="X118" t="inlineStr">
         <is>
           <t>r48</t>
@@ -5108,27 +5738,22 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>s38</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>s39</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>s40</t>
         </is>
       </c>
       <c r="CD118" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="CQ118" t="inlineStr">
-        <is>
-          <t>r48</t>
+          <t>s170</t>
         </is>
       </c>
     </row>
@@ -5140,82 +5765,82 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>s244</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>s238</t>
         </is>
       </c>
       <c r="AU119" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>s241</t>
         </is>
       </c>
       <c r="AV119" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>s243</t>
         </is>
       </c>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL119" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>s235</t>
         </is>
       </c>
       <c r="BS119" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT119" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>s441</t>
         </is>
       </c>
       <c r="BW119" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY119" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA119" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB119" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC119" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE119" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG119" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP119" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -5225,36 +5850,46 @@
           <t>state 241</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>r93</t>
-        </is>
-      </c>
-      <c r="Q120" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
       </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>r89</t>
+        </is>
+      </c>
       <c r="X120" t="inlineStr">
         <is>
           <t>r89</t>
@@ -5266,11 +5901,6 @@
         </is>
       </c>
       <c r="AJ120" t="inlineStr">
-        <is>
-          <t>r89</t>
-        </is>
-      </c>
-      <c r="CQ120" t="inlineStr">
         <is>
           <t>r89</t>
         </is>
@@ -5282,47 +5912,37 @@
           <t>state 243</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>r95</t>
-        </is>
-      </c>
-      <c r="Q121" t="inlineStr">
+      <c r="R121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr">
+      <c r="S121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>r91</t>
+        </is>
+      </c>
       <c r="X121" t="inlineStr">
-        <is>
-          <t>r91</t>
-        </is>
-      </c>
-      <c r="CQ121" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
@@ -5341,37 +5961,102 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>r92</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>r92</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>r92</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>r90</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>r92</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
         <is>
           <t>r97</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>r92</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>r92</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>r92</t>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>r97</t>
+        </is>
+      </c>
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>r97</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
@@ -5382,11 +6067,6 @@
       <c r="AJ122" t="inlineStr">
         <is>
           <t>r90</t>
-        </is>
-      </c>
-      <c r="CQ122" t="inlineStr">
-        <is>
-          <t>r92</t>
         </is>
       </c>
     </row>
@@ -5398,27 +6078,27 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>s447</t>
         </is>
       </c>
       <c r="BX123" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -5430,112 +6110,112 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR124" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS124" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>s257</t>
         </is>
       </c>
       <c r="AZ124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA124" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC124" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE124" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG124" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI124" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BM124" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>s452</t>
         </is>
       </c>
       <c r="CH124" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -5547,7 +6227,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>s474</t>
         </is>
       </c>
     </row>
@@ -5564,102 +6244,102 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR126" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS126" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AZ126" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>s70</t>
         </is>
       </c>
       <c r="BA126" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB126" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC126" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG126" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI126" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="CH126" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -5671,87 +6351,87 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>s158</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU127" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>s65</t>
         </is>
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL127" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BP127" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>s495</t>
         </is>
       </c>
       <c r="BS127" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>s496</t>
         </is>
       </c>
       <c r="BT127" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>s499</t>
         </is>
       </c>
       <c r="BW127" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY127" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA127" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB127" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC127" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE127" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG127" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP127" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -5773,32 +6453,47 @@
           <t>state 281</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="Q129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr">
+      <c r="R129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
       <c r="X129" t="inlineStr">
-        <is>
-          <t>r43</t>
-        </is>
-      </c>
-      <c r="CQ129" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -5817,22 +6512,22 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="BX130" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -5844,7 +6539,7 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>s516</t>
         </is>
       </c>
     </row>
@@ -5866,34 +6561,44 @@
           <t>state 304</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>r34</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>r34</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="Q133" t="inlineStr">
         <is>
           <t>r34</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr">
+      <c r="R133" t="inlineStr">
         <is>
           <t>r34</t>
         </is>
       </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>r34</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>r34</t>
+        </is>
+      </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>s31</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>s32</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
@@ -5903,12 +6608,7 @@
       </c>
       <c r="BZ133" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="CQ133" t="inlineStr">
-        <is>
-          <t>r34</t>
+          <t>s150</t>
         </is>
       </c>
     </row>
@@ -5920,82 +6620,82 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>s158</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU134" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>s65</t>
         </is>
       </c>
       <c r="AV134" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL134" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BS134" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT134" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>s520</t>
         </is>
       </c>
       <c r="BW134" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>s100</t>
         </is>
       </c>
       <c r="BY134" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA134" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB134" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC134" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE134" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG134" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP134" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6707,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>s536</t>
         </is>
       </c>
     </row>
@@ -6019,87 +6719,87 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>s244</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>s241</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>s243</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL136" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BS136" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT136" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>s544</t>
         </is>
       </c>
       <c r="BV136" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>s537</t>
         </is>
       </c>
       <c r="BW136" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>s538</t>
         </is>
       </c>
       <c r="BY136" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA136" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB136" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC136" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE136" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG136" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP136" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -6109,32 +6809,47 @@
           <t>state 320</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="Q137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr">
+      <c r="R137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
       </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>r39</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>r39</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>r39</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>r39</t>
+        </is>
+      </c>
       <c r="X137" t="inlineStr">
-        <is>
-          <t>r39</t>
-        </is>
-      </c>
-      <c r="CQ137" t="inlineStr">
         <is>
           <t>r39</t>
         </is>
@@ -6151,37 +6866,97 @@
           <t>r64</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="P138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr">
+      <c r="Q138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr">
+      <c r="R138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
       <c r="X138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="CQ138" t="inlineStr">
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
@@ -6198,37 +6973,87 @@
           <t>r62</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="P139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr">
+      <c r="Q139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr">
+      <c r="R139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
       <c r="X139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
       </c>
-      <c r="CQ139" t="inlineStr">
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AC139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>r62</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
         <is>
           <t>r62</t>
         </is>
@@ -6240,37 +7065,37 @@
           <t>state 335</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="Q140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr">
+      <c r="R140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
       </c>
-      <c r="R140" t="inlineStr">
+      <c r="S140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
       </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>r46</t>
+        </is>
+      </c>
       <c r="X140" t="inlineStr">
-        <is>
-          <t>r46</t>
-        </is>
-      </c>
-      <c r="CQ140" t="inlineStr">
         <is>
           <t>r46</t>
         </is>
@@ -6282,37 +7107,37 @@
           <t>state 336</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
+      <c r="R141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="S141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
       </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>r91</t>
+        </is>
+      </c>
       <c r="X141" t="inlineStr">
-        <is>
-          <t>r91</t>
-        </is>
-      </c>
-      <c r="CQ141" t="inlineStr">
         <is>
           <t>r91</t>
         </is>
@@ -6324,37 +7149,37 @@
           <t>state 337</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr">
+      <c r="R142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
       </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>r92</t>
+        </is>
+      </c>
       <c r="X142" t="inlineStr">
-        <is>
-          <t>r92</t>
-        </is>
-      </c>
-      <c r="CQ142" t="inlineStr">
         <is>
           <t>r92</t>
         </is>
@@ -6371,74 +7196,94 @@
           <t>r49</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr">
+      <c r="Q143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr">
+      <c r="R143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>r49</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>r49</t>
+        </is>
+      </c>
       <c r="X143" t="inlineStr">
         <is>
           <t>r49</t>
         </is>
       </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>r49</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>r49</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>r49</t>
+        </is>
+      </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>s42</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>s43</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>s44</t>
         </is>
       </c>
       <c r="AE143" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>s45</t>
         </is>
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>s46</t>
         </is>
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>s47</t>
         </is>
       </c>
       <c r="CF143" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="CQ143" t="inlineStr">
-        <is>
-          <t>r49</t>
+          <t>s174</t>
         </is>
       </c>
     </row>
@@ -6453,37 +7298,87 @@
           <t>r54</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="P144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
-      <c r="P144" t="inlineStr">
+      <c r="Q144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr">
+      <c r="R144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
       <c r="X144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
       </c>
-      <c r="CQ144" t="inlineStr">
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>r54</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
         <is>
           <t>r54</t>
         </is>
@@ -6500,11 +7395,6 @@
           <t>r65</t>
         </is>
       </c>
-      <c r="CQ145" t="inlineStr">
-        <is>
-          <t>r65</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6519,35 +7409,90 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
+          <t>r70</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="P146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr">
+      <c r="Q146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr">
+      <c r="R146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
       <c r="X146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="CQ146" t="inlineStr">
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -6566,27 +7511,22 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="BX147" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="CQ147" t="inlineStr">
-        <is>
-          <t>r71</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -6601,11 +7541,6 @@
           <t>r72</t>
         </is>
       </c>
-      <c r="CQ148" t="inlineStr">
-        <is>
-          <t>r72</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6620,12 +7555,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="CQ149" t="inlineStr">
-        <is>
-          <t>r75</t>
+          <t>s194</t>
         </is>
       </c>
     </row>
@@ -6637,17 +7567,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>r84</t>
+          <t>r77</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>r84</t>
-        </is>
-      </c>
-      <c r="CQ150" t="inlineStr">
-        <is>
-          <t>r84</t>
+          <t>r77</t>
         </is>
       </c>
     </row>
@@ -6659,7 +7584,7 @@
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>s566</t>
         </is>
       </c>
     </row>
@@ -6683,7 +7608,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>s567</t>
         </is>
       </c>
     </row>
@@ -6695,27 +7620,27 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>s568</t>
         </is>
       </c>
       <c r="BX154" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -6730,37 +7655,87 @@
           <t>r64</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="P155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr">
+      <c r="Q155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="Q155" t="inlineStr">
+      <c r="R155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
       <c r="X155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="CQ155" t="inlineStr">
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
@@ -6774,7 +7749,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>s573</t>
         </is>
       </c>
     </row>
@@ -6789,11 +7764,6 @@
           <t>r20</t>
         </is>
       </c>
-      <c r="CQ157" t="inlineStr">
-        <is>
-          <t>r20</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6803,7 +7773,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>s574</t>
         </is>
       </c>
     </row>
@@ -6813,32 +7783,47 @@
           <t>state 496</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="Q159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr">
+      <c r="R159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
       </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>r43</t>
+        </is>
+      </c>
       <c r="X159" t="inlineStr">
-        <is>
-          <t>r43</t>
-        </is>
-      </c>
-      <c r="CQ159" t="inlineStr">
         <is>
           <t>r43</t>
         </is>
@@ -6857,22 +7842,22 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="BX160" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -6896,27 +7881,27 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>s579</t>
         </is>
       </c>
       <c r="BX162" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -6928,112 +7913,112 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ163" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR163" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS163" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT163" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY163" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>s257</t>
         </is>
       </c>
       <c r="AZ163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA163" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB163" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC163" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD163" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG163" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH163" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI163" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BM163" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>s584</t>
         </is>
       </c>
       <c r="CH163" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -7045,7 +8030,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>s606</t>
         </is>
       </c>
     </row>
@@ -7060,37 +8045,87 @@
           <t>r63</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="P165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="P165" t="inlineStr">
+      <c r="Q165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr">
+      <c r="R165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
       <c r="X165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
       </c>
-      <c r="CQ165" t="inlineStr">
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>r63</t>
+        </is>
+      </c>
+      <c r="AG165" t="inlineStr">
         <is>
           <t>r63</t>
         </is>
@@ -7102,39 +8137,29 @@
           <t>state 544</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="Q166" t="inlineStr">
         <is>
           <t>r33</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>r33</t>
-        </is>
-      </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>s27</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>s28</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>s29</t>
         </is>
       </c>
       <c r="BX166" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="CQ166" t="inlineStr">
-        <is>
-          <t>r33</t>
+          <t>s126</t>
         </is>
       </c>
     </row>
@@ -7146,27 +8171,27 @@
       </c>
       <c r="AL167" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>s56</t>
         </is>
       </c>
       <c r="AM167" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>s57</t>
         </is>
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>s58</t>
         </is>
       </c>
       <c r="AO167" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>s59</t>
         </is>
       </c>
       <c r="CN167" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>s611</t>
         </is>
       </c>
     </row>
@@ -7181,7 +8206,12 @@
           <t>r16</t>
         </is>
       </c>
-      <c r="CQ168" t="inlineStr">
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>r16</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>r16</t>
         </is>
@@ -7198,39 +8228,99 @@
           <t>r64</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr">
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
         <is>
           <t>r64</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>r44</t>
-        </is>
-      </c>
-      <c r="X169" t="inlineStr">
-        <is>
-          <t>r44</t>
-        </is>
-      </c>
-      <c r="CQ169" t="inlineStr">
-        <is>
-          <t>r44</t>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>r64</t>
+        </is>
+      </c>
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t>r64</t>
         </is>
       </c>
     </row>
@@ -7245,7 +8335,12 @@
           <t>r19</t>
         </is>
       </c>
-      <c r="CQ170" t="inlineStr">
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>r19</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>r19</t>
         </is>
@@ -7259,7 +8354,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>s616</t>
         </is>
       </c>
     </row>
@@ -7269,32 +8364,47 @@
           <t>state 579</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="Q172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
-      <c r="Q172" t="inlineStr">
+      <c r="R172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
       </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>r44</t>
+        </is>
+      </c>
       <c r="X172" t="inlineStr">
-        <is>
-          <t>r44</t>
-        </is>
-      </c>
-      <c r="CQ172" t="inlineStr">
         <is>
           <t>r44</t>
         </is>
@@ -7308,7 +8418,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>s617</t>
         </is>
       </c>
     </row>
@@ -7320,87 +8430,87 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>s244</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>s33</t>
         </is>
       </c>
       <c r="AU174" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>s241</t>
         </is>
       </c>
       <c r="AV174" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>s243</t>
         </is>
       </c>
       <c r="AW174" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>s67</t>
         </is>
       </c>
       <c r="BL174" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>s36</t>
         </is>
       </c>
       <c r="BS174" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>s156</t>
         </is>
       </c>
       <c r="BT174" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>s544</t>
         </is>
       </c>
       <c r="BV174" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>s618</t>
         </is>
       </c>
       <c r="BW174" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>s538</t>
         </is>
       </c>
       <c r="BY174" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>s26</t>
         </is>
       </c>
       <c r="CA174" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>s30</t>
         </is>
       </c>
       <c r="CB174" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>s34</t>
         </is>
       </c>
       <c r="CC174" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>s35</t>
         </is>
       </c>
       <c r="CE174" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>s37</t>
         </is>
       </c>
       <c r="CG174" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>s41</t>
         </is>
       </c>
       <c r="CP174" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>s68</t>
         </is>
       </c>
     </row>
@@ -7410,6 +8520,11 @@
           <t>state 611</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>r84</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7419,112 +8534,112 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>s18</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>s82</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>s23</t>
         </is>
       </c>
       <c r="AK176" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>s52</t>
         </is>
       </c>
       <c r="AQ176" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>s61</t>
         </is>
       </c>
       <c r="AR176" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="AS176" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>s63</t>
         </is>
       </c>
       <c r="AT176" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>s64</t>
         </is>
       </c>
       <c r="AY176" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>s257</t>
         </is>
       </c>
       <c r="AZ176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="BA176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="BB176" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="BC176" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="BD176" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="BE176" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="BF176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="BG176" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="BH176" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="BI176" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="BM176" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>s635</t>
         </is>
       </c>
       <c r="CH176" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>s48</t>
         </is>
       </c>
     </row>
@@ -7539,11 +8654,6 @@
           <t>r29</t>
         </is>
       </c>
-      <c r="CQ177" t="inlineStr">
-        <is>
-          <t>r29</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7551,16 +8661,6 @@
           <t>state 618</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>r31</t>
-        </is>
-      </c>
-      <c r="CQ178" t="inlineStr">
-        <is>
-          <t>r31</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7570,7 +8670,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>s657</t>
         </is>
       </c>
     </row>
@@ -7581,11 +8681,6 @@
         </is>
       </c>
       <c r="E180" t="inlineStr">
-        <is>
-          <t>r21</t>
-        </is>
-      </c>
-      <c r="CQ180" t="inlineStr">
         <is>
           <t>r21</t>
         </is>
